--- a/tak ma wyglądać excel.xlsx
+++ b/tak ma wyglądać excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarcy\Desktop\ProgramyC++Java\Exchange rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08977E3D-41E2-4D43-960A-DF93C557E6E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A27EF8-3F63-49B7-806D-E55590C3CA80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{213AC519-D599-4E8D-A50A-6A2424532737}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>table</t>
   </si>
@@ -51,13 +51,13 @@
     <t>no</t>
   </si>
   <si>
-    <t>029/A/NBP/2021,</t>
-  </si>
-  <si>
     <t>effectiveDate</t>
   </si>
   <si>
     <t>mid</t>
+  </si>
+  <si>
+    <t>026/A/NBP/2021</t>
   </si>
 </sst>
 </file>
@@ -65,9 +65,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000\ &quot;zł&quot;_-;\-* #,##0.0000\ &quot;zł&quot;_-;_-* &quot;-&quot;????\ &quot;zł&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000\ &quot;zł&quot;_-;\-* #,##0.0000\ &quot;zł&quot;_-;_-* &quot;-&quot;????\ &quot;zł&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,19 +102,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,20 +429,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466CEA91-F8B5-4082-AB94-FD1D2864F471}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +457,9 @@
         <v>6</v>
       </c>
       <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -462,71 +475,30 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>44239</v>
+        <v>44236</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.6972</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.7185999999999999</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
